--- a/11_iOSApp開発/001_ニートいじり/01_設計書/基本設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/基本設計書.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="実装機能一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ステージについて" sheetId="2" r:id="rId2"/>
     <sheet name="ステータスについて" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1230,6 +1231,49 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>550239</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>170165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17695239" cy="10285715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1524,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2169,4 +2213,18 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/11_iOSApp開発/001_ニートいじり/01_設計書/基本設計書.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/基本設計書.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="実装機能一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ステージについて" sheetId="2" r:id="rId2"/>
     <sheet name="ステータスについて" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1231,49 +1230,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>550239</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>170165</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="17695239" cy="10285715"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1568,7 +1524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1761,14 +1719,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.25" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2160,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2213,18 +2173,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>